--- a/DocPacs.xlsx
+++ b/DocPacs.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/chris2023608_live_ytech_edu/Documents/Documents/GitHub/docpacs2122/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboldt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D192453-4D36-4F2A-9275-8C6126CA9CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC55B0-BAFD-40A3-B063-DDA00AB9EDC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{0760EC06-0F7A-4BCD-BC8E-368E82699D68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0760EC06-0F7A-4BCD-BC8E-368E82699D68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Goals" sheetId="1" r:id="rId1"/>
+    <sheet name="Required Documentation" sheetId="2" r:id="rId2"/>
+    <sheet name="Included Documentation" sheetId="3" r:id="rId3"/>
+    <sheet name="Changes" sheetId="4" r:id="rId4"/>
+    <sheet name="Events" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +28,1209 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="391">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>"Aug27"</t>
+  </si>
+  <si>
+    <t>Establish classroom expectations for Year ‘21-‘22</t>
+  </si>
+  <si>
+    <t>Review knowledge of basic programming</t>
+  </si>
+  <si>
+    <t>Assess knowledge of Javascript</t>
+  </si>
+  <si>
+    <t>"Sep3"</t>
+  </si>
+  <si>
+    <t>Understand different ways of sharing files and data with teammates</t>
+  </si>
+  <si>
+    <t>Review using github to complete projects together</t>
+  </si>
+  <si>
+    <t>Understand how basic nodejs applications work</t>
+  </si>
+  <si>
+    <t>"Sep10"</t>
+  </si>
+  <si>
+    <t>Successfully fork, clone, edit, commit, push, and pull request the DocPac git repository on GitHub</t>
+  </si>
+  <si>
+    <t>Begin compiling notebook by writing instructions for initializing a Nodejs project and creating an HTTP server in Nodejs</t>
+  </si>
+  <si>
+    <t>Begin compiling your portfolio by printing out your Nodejs HTTP Server code</t>
+  </si>
+  <si>
+    <t>"Sep17"</t>
+  </si>
+  <si>
+    <t>Import ExpressJS middleware into your Nodejs HTTP server project</t>
+  </si>
+  <si>
+    <t>Create “endpoints” users can navigate to in ExpressJS</t>
+  </si>
+  <si>
+    <t>Serve HTML files with CSS stylesheets and Javascript files from ExpressJS</t>
+  </si>
+  <si>
+    <t>Create a complete website using ExpressJS and the goals abov</t>
+  </si>
+  <si>
+    <t>Learn how to update, replace missing, and print DocPacs</t>
+  </si>
+  <si>
+    <t>Create a schedule and track it over time</t>
+  </si>
+  <si>
+    <t>"Sep24"</t>
+  </si>
+  <si>
+    <t>Successfully use EJS to create templates to serve with ExpressJS (Change the output of a webpage before sending to the user)</t>
+  </si>
+  <si>
+    <t>Use repository branching to organize complex Git projects</t>
+  </si>
+  <si>
+    <t>Review the basics of Javascript and prepare to study the language</t>
+  </si>
+  <si>
+    <t>"Oct1"</t>
+  </si>
+  <si>
+    <t>Consolidate and organize all Notebook tutorials to this point</t>
+  </si>
+  <si>
+    <t>Learn how to use KanBan boards to manage projects</t>
+  </si>
+  <si>
+    <t>Be able to create an ExpressJS HTTP server from memory</t>
+  </si>
+  <si>
+    <t>"Oct8"</t>
+  </si>
+  <si>
+    <t>Establish and document standards for Notebook entries for your team.</t>
+  </si>
+  <si>
+    <t>Create JSON files to store Javascript Objects on the hard disk.</t>
+  </si>
+  <si>
+    <t>Read JSON files in NodeJS as parse into a Javascript Object</t>
+  </si>
+  <si>
+    <t>Convert Javascript Objects to a string to save in a JSON file</t>
+  </si>
+  <si>
+    <t>Use data from a JSON file to populate EJS Templates with data</t>
+  </si>
+  <si>
+    <t>Read Query Parameters with ExpressJS</t>
+  </si>
+  <si>
+    <t>Save data passed by Query Parameters to a JSON file</t>
+  </si>
+  <si>
+    <t>"Oct15"</t>
+  </si>
+  <si>
+    <t>Ensure your Codecademy is up to date</t>
+  </si>
+  <si>
+    <t>Analyze Meritocracy and Team Composition</t>
+  </si>
+  <si>
+    <t>Understand the difference between HTTP GET and HTTP POST requests</t>
+  </si>
+  <si>
+    <t>Accept and handle POST requests and parameters in ExpressJS</t>
+  </si>
+  <si>
+    <t>Send POST requests w/ parameters via Postman</t>
+  </si>
+  <si>
+    <t>Create an HTML form that can submit form data as a POST request</t>
+  </si>
+  <si>
+    <t>"Oct22"</t>
+  </si>
+  <si>
+    <t>Prepare a Cover Letter and Resumes for your team</t>
+  </si>
+  <si>
+    <t>Prepare for a group interview to receive your choice of team project</t>
+  </si>
+  <si>
+    <t>Complete the “Scope” chapter of Codecademy “Learn Javascript” course</t>
+  </si>
+  <si>
+    <t>Upgrade Team Website for show comments left by others</t>
+  </si>
+  <si>
+    <t>"Oct29"</t>
+  </si>
+  <si>
+    <t>Prepare for DocPac Binder Audit</t>
+  </si>
+  <si>
+    <t>Prepare for Team Project Interviews</t>
+  </si>
+  <si>
+    <t>Prepare for nodeJS/ExpressJS/EJS exam</t>
+  </si>
+  <si>
+    <t>"Nov5"</t>
+  </si>
+  <si>
+    <t>Learn to send professional Emails</t>
+  </si>
+  <si>
+    <t>Develop a Personal Improvement Plan</t>
+  </si>
+  <si>
+    <t>Learn about Contracts</t>
+  </si>
+  <si>
+    <t>Pass the ExpressJS Exam</t>
+  </si>
+  <si>
+    <t>Continue Codecademy</t>
+  </si>
+  <si>
+    <t>"Nov12"</t>
+  </si>
+  <si>
+    <t>Receive projects and sign contracts</t>
+  </si>
+  <si>
+    <t>Analyze project requirements and design an MVP</t>
+  </si>
+  <si>
+    <t>Break plans down into smaller pieces, set goals and timelines</t>
+  </si>
+  <si>
+    <t>Begin preparing for Quarter 2 Exam</t>
+  </si>
+  <si>
+    <t>"Nov19"</t>
+  </si>
+  <si>
+    <t>Design an MVP</t>
+  </si>
+  <si>
+    <t>Break MVP down into steps and assign on a KanBan board</t>
+  </si>
+  <si>
+    <t>Schedule meetings</t>
+  </si>
+  <si>
+    <t>Progress Exam Preparation Plan</t>
+  </si>
+  <si>
+    <t>Produce First Prototype</t>
+  </si>
+  <si>
+    <t>"Dec3"</t>
+  </si>
+  <si>
+    <t>Bootcamp Javascript every day to build coding skills</t>
+  </si>
+  <si>
+    <t>"Dec10"</t>
+  </si>
+  <si>
+    <t>Use the skills you built in JS Bootcamp to hit your first Team Project goal</t>
+  </si>
+  <si>
+    <t>Practice writing JS syntax to solve problems</t>
+  </si>
+  <si>
+    <t>Finish Codecademy</t>
+  </si>
+  <si>
+    <t>Wrap up JS Bootcamp git repos</t>
+  </si>
+  <si>
+    <t>"Dec17"</t>
+  </si>
+  <si>
+    <t>Submit Codecademy screenshots in Schoology</t>
+  </si>
+  <si>
+    <t>Analyze comments and code review on issues and Pull Requests</t>
+  </si>
+  <si>
+    <t>Submit a Pull Request to your team project that completes a set goal</t>
+  </si>
+  <si>
+    <t>Configure .gitignore and readme.md</t>
+  </si>
+  <si>
+    <t>Determine when to use for, forin, forof, foreach()</t>
+  </si>
+  <si>
+    <t>Learn basic Javascript graphics generation</t>
+  </si>
+  <si>
+    <t>"Dec22"</t>
+  </si>
+  <si>
+    <t>Print and submit/resubmit all missing DocPacs or DocPacs with missing documents</t>
+  </si>
+  <si>
+    <t>Break JS Bootcamp Game down into a flow chart</t>
+  </si>
+  <si>
+    <t>"Jan7"</t>
+  </si>
+  <si>
+    <t>Examine requirements for the NOCTI</t>
+  </si>
+  <si>
+    <t>Develop a plan to pass the performance NOCTI</t>
+  </si>
+  <si>
+    <t>Practiced the skills required in our plan</t>
+  </si>
+  <si>
+    <t>"Jan14"</t>
+  </si>
+  <si>
+    <t>Develop a Daily Routine</t>
+  </si>
+  <si>
+    <t>Design a flow chart for the Exam</t>
+  </si>
+  <si>
+    <t>Practice the skills required to pass the Exam</t>
+  </si>
+  <si>
+    <t>Present Team Projects to Teacher</t>
+  </si>
+  <si>
+    <t>"Jan21"</t>
+  </si>
+  <si>
+    <t>Prepare for Exam</t>
+  </si>
+  <si>
+    <t>Pass Exam</t>
+  </si>
+  <si>
+    <t>"Jan28"</t>
+  </si>
+  <si>
+    <t>Review Reading/Writing to JSON files for Exam</t>
+  </si>
+  <si>
+    <t>Prepare DocPac Binders for grading and review</t>
+  </si>
+  <si>
+    <t>"Feb4"</t>
+  </si>
+  <si>
+    <t>Understand requirements for flow charts for Nocti</t>
+  </si>
+  <si>
+    <t>Solve a variety of Javascript problems that may appear on the Nocti</t>
+  </si>
+  <si>
+    <t>Prepare DocPac Data for analysis</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Req. Doc.</t>
+  </si>
+  <si>
+    <t>"Aug 27"</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Signed Syllabus</t>
+  </si>
+  <si>
+    <t>Javascript Initial Assessment (js_assess.js)</t>
+  </si>
+  <si>
+    <t>"Sep 3"</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Build A Webserver Using nodejs (pg. 2)</t>
+  </si>
+  <si>
+    <t>Sept. 1st: Github practice assignment (assigned in class)</t>
+  </si>
+  <si>
+    <t>Print, View</t>
+  </si>
+  <si>
+    <t>[data missing]</t>
+  </si>
+  <si>
+    <t>"Sep 10"</t>
+  </si>
+  <si>
+    <t>Notebook 1: Initialize Nodejs Project</t>
+  </si>
+  <si>
+    <t>Notebook 2: Nodejs HTTP Server</t>
+  </si>
+  <si>
+    <t>Portfolio 1: Nodejs HTTP Server</t>
+  </si>
+  <si>
+    <t>"Sep 17"</t>
+  </si>
+  <si>
+    <t>"Express Middleware (pg. 2)</t>
+  </si>
+  <si>
+    <t>"ExpressJS Team Website (pg. 2)</t>
+  </si>
+  <si>
+    <t>Updated Version of this DocPac</t>
+  </si>
+  <si>
+    <t>"Sep 24"</t>
+  </si>
+  <si>
+    <t>Upgrade Team Website with EJS</t>
+  </si>
+  <si>
+    <t>Notebook 4: ReactJS (pg. 2)</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Codecademy “Learn Javascript” course, “Introduction” Chapter : Includes both Lessons, both Projects, the Quiz, and Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Oct 1" </t>
+  </si>
+  <si>
+    <t>Notebook 3: Using ExpressJS with NodeJS</t>
+  </si>
+  <si>
+    <t>Team Trello Board</t>
+  </si>
+  <si>
+    <t>"Oct 8"</t>
+  </si>
+  <si>
+    <t>Team Documentation: Notebook Entry Format</t>
+  </si>
+  <si>
+    <t>Analysis: Team Composition</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Load Team Profiles from JSON</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Save Query Params to JSON</t>
+  </si>
+  <si>
+    <t>Codecademy “Learn Javascript” course, “Functions” Chapter : Includes the Lesson, both Projects, and the Quiz</t>
+  </si>
+  <si>
+    <t>"Oct 15"</t>
+  </si>
+  <si>
+    <t>Notebook 5: HTML Submit Form Data</t>
+  </si>
+  <si>
+    <t>Notebook 6: ExpressJS POST Requests</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Record Comments with HTML Form</t>
+  </si>
+  <si>
+    <t>Codecademy: Everything assigned in previous DocPacs</t>
+  </si>
+  <si>
+    <t>"Oct 22"</t>
+  </si>
+  <si>
+    <t>Cover Letter (pg. 2)</t>
+  </si>
+  <si>
+    <t>Your Resume (pg. 2)</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Scopes. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>Upgrade Team Website: Comments Section (pg. 2)</t>
+  </si>
+  <si>
+    <t>"Oct 29"</t>
+  </si>
+  <si>
+    <t>Notebooks 1 - 6</t>
+  </si>
+  <si>
+    <t>DocPacs Aug17 - Oct29</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, all chapters up to Scopes</t>
+  </si>
+  <si>
+    <t>"Nov 5"</t>
+  </si>
+  <si>
+    <t>Personal Improvement Plan</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Arrays. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>"Nov 12"</t>
+  </si>
+  <si>
+    <t>Exam Preparation Plan</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Loops. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>"Nov 19"</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Exam Preparation Progress Report (pg. 2)</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Iterators. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>"Dec 3"</t>
+  </si>
+  <si>
+    <t>JS Bootcamp Key Take-Aways</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>All four days of JS Bootcamp 2122 accepted as pull requests into csmith1188/jsbootcamp2122 on Github.com</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Objects. Lesson, Lesson, Project, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>"Dec 10"</t>
+  </si>
+  <si>
+    <t>Reflection (pg. 3)</t>
+  </si>
+  <si>
+    <t>Team Project Goal (pg. 2)</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 1</t>
+  </si>
+  <si>
+    <t>Show instructor your Team Project's goal being met</t>
+  </si>
+  <si>
+    <t>Get your JS Bootcamp fork accepted as a Pull Request to the upstream</t>
+  </si>
+  <si>
+    <t>Codecademy: All Codecademy completed (DocPac rejected if not complete!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dec 17" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflection (pg. 3) </t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 2</t>
+  </si>
+  <si>
+    <t>JS Challenge (Dec15) Canvas + Iterators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dec 22" </t>
+  </si>
+  <si>
+    <t>JS Bootcamp Flow Chart (Dec21)</t>
+  </si>
+  <si>
+    <t>Winter Break Schedule</t>
+  </si>
+  <si>
+    <t>"Jan 7"</t>
+  </si>
+  <si>
+    <t>Lesson Key Takeaways x 3</t>
+  </si>
+  <si>
+    <t>JS Challenges Pt. 3</t>
+  </si>
+  <si>
+    <t>"Jan 14"</t>
+  </si>
+  <si>
+    <t>Design a Routine</t>
+  </si>
+  <si>
+    <t>JS Challenges Pt. 4</t>
+  </si>
+  <si>
+    <t>JS Challenges Pt. 5</t>
+  </si>
+  <si>
+    <t>Team Project Presentation</t>
+  </si>
+  <si>
+    <t>"Jan 21"</t>
+  </si>
+  <si>
+    <t>"Jan 28"</t>
+  </si>
+  <si>
+    <t>Lesson Key Takeaways</t>
+  </si>
+  <si>
+    <t>Reward System Brainstorm</t>
+  </si>
+  <si>
+    <t>"Feb 4"</t>
+  </si>
+  <si>
+    <t>Single: Nocti Flowchart Preparation (pg. 2)</t>
+  </si>
+  <si>
+    <t>Teams: DocPac Digitalization (pg. 2)</t>
+  </si>
+  <si>
+    <t>Pairs: Javascript Challenge #7</t>
+  </si>
+  <si>
+    <t>Pairs: Javascript Challenge #8</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Included Documentation</t>
+  </si>
+  <si>
+    <t>"Aug27</t>
+  </si>
+  <si>
+    <t>Printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Syllabus</t>
+  </si>
+  <si>
+    <t>DocPac Expectations (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javascript Initial Assessment (js_assess.js)</t>
+  </si>
+  <si>
+    <t>Creating Your Notebook (pg. 2)</t>
+  </si>
+  <si>
+    <t>Creating Your Portfolio (pg. 2)</t>
+  </si>
+  <si>
+    <t>DocPacs on Github (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DocPac Github Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “Express Middleware (pg. 2)”</t>
+  </si>
+  <si>
+    <t>Viewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “ExpressJS Team Website (pg. 2)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Updated Version of this DocPac</t>
+  </si>
+  <si>
+    <t>Notebook 4: EJS (pg. 2)</t>
+  </si>
+  <si>
+    <t>Upgrade Your Team Website with EJS (pg. 2)</t>
+  </si>
+  <si>
+    <t>Codecademy Setup</t>
+  </si>
+  <si>
+    <t>ExpressJS with EJS Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Notebook Development</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Save Query Parameters to JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analysis: Team Composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Notebook 5: HTML Submit Form Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Notebook 6: ExpressJS POST Requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Team Website Upgrade: Record Comments with HTML Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Codecademy: Everything assigned in previous DocPacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Available Team Projects</t>
+  </si>
+  <si>
+    <t>DocPac Binder Audit (pg. 2)</t>
+  </si>
+  <si>
+    <t>Team Project Interviews (pg. 2)</t>
+  </si>
+  <si>
+    <t>nodeJS/ExpressJS/EJS exam (pg. 2)</t>
+  </si>
+  <si>
+    <t>Sending Professional Emails (pg. 2)</t>
+  </si>
+  <si>
+    <t>Personal Improvement Plan (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Personal Improvement Plan</t>
+  </si>
+  <si>
+    <t>Project Assignment Schedule (pg. 2)</t>
+  </si>
+  <si>
+    <t>Quarter 2 Exam Expectations (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Bootcamp Key Take-Aways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Challenge Pt. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Challenge Pt. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Bootcamp (Dec15) Canvas + Iterators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Bootcamp Flow Chart (Dec21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Winter Break Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Design a Routine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lesson Key Takeaways x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Challenges Pt. 3</t>
+  </si>
+  <si>
+    <t>Team Project Presentation (pg. 2)</t>
+  </si>
+  <si>
+    <t>Design a Routine (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lesson Key Takeaways x 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Challenges Pt. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS Challenges Pt. 5</t>
+  </si>
+  <si>
+    <t>Exam Preparation (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lesson Key Take-aways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reward System Brainstorm</t>
+  </si>
+  <si>
+    <t>Single: Nocti Flowchart  Preparation (pg. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pairs: Javascript Challenge #7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pairs: Javascript Challenge #8</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Department and Name required on front of DocPacs</t>
+  </si>
+  <si>
+    <t>Permanent changes made to DocPacs are now listed here each week</t>
+  </si>
+  <si>
+    <t>Each week’s important events are now listed on the front of the DocPac</t>
+  </si>
+  <si>
+    <t>A new icon ( eyeball ) means this needs to be reviewed and signed off on by Mr. Smith during the week, before final submission of your DocPac. It also means you must be present in class to receive this assignment.</t>
+  </si>
+  <si>
+    <t>DocPacs are now in a Github repository for students to fork and make pull requests. Having pull requests accepted yields extra credit.</t>
+  </si>
+  <si>
+    <t>Checkboxes circled with “OK” decrease the maximum number of checks available for grading, but can still count towards your score if completed anyways.</t>
+  </si>
+  <si>
+    <t>Notebook entries will now be stored in the DocPac binder</t>
+  </si>
+  <si>
+    <t>Portfolio entries will now be stored in the DocPac binder</t>
+  </si>
+  <si>
+    <t>DocPacs now available for editing on Github</t>
+  </si>
+  <si>
+    <t>QR Codes provided on the DocPac when available</t>
+  </si>
+  <si>
+    <t>To reduce confusion, “Companies” and “Departments” are just called “Teams”</t>
+  </si>
+  <si>
+    <t>Some tasks can now be worth multiple check marks when scored</t>
+  </si>
+  <si>
+    <t>Added (pencil icon) to indicate Mr. Smith will manually grade these without any need for submission. The task must be completed by the end of the day that the DocPac is to be submitted.</t>
+  </si>
+  <si>
+    <t>Reflections reduced to two questions per week. They will change each week so look for them!</t>
+  </si>
+  <si>
+    <t>You will now be graded on the physical condition of your DocPacs</t>
+  </si>
+  <si>
+    <t>Your Notebook and Portfolio pages will now be penalized per major mistake made, rather than “present/complete/no errors”</t>
+  </si>
+  <si>
+    <t>You can now elect to share a submission with another team member by indicating their name on that submission on the back of the DocPac</t>
+  </si>
+  <si>
+    <t>Write their name in the “Submitter” box</t>
+  </si>
+  <si>
+    <t>Grading Rubric: Checkmark is for credit. Cross mark is for missed.</t>
+  </si>
+  <si>
+    <t>To get credit for showing your team website, it must be running on your computer from your git branch/fork. You cannot get credit for others having it checked</t>
+  </si>
+  <si>
+    <t>DocPac review now a part of Weekly Review</t>
+  </si>
+  <si>
+    <t>Reflection instructions clarified in DocPac</t>
+  </si>
+  <si>
+    <t>Softcore memes allowed in #general. No Spam</t>
+  </si>
+  <si>
+    <t>Reflection questions have changed</t>
+  </si>
+  <si>
+    <t>New grading system (see pg. 4)</t>
+  </si>
+  <si>
+    <t>Single: This assignment should only be completed by you. Do not share.</t>
+  </si>
+  <si>
+    <t>Pairs: Only one or two people may complete this assignment. Do not share.</t>
+  </si>
+  <si>
+    <t>Teams: Your whole team can complete and share this project with each other.</t>
+  </si>
+  <si>
+    <t>DocPac Date</t>
+  </si>
+  <si>
+    <t>Event Date</t>
+  </si>
+  <si>
+    <t>Event Text</t>
+  </si>
+  <si>
+    <t>Aug. 30th: Pictures</t>
+  </si>
+  <si>
+    <t>Aug. 30th: Lesson: Reviewing Data Sharing and Cloud Services</t>
+  </si>
+  <si>
+    <t>Aug. 31st: [data missing]</t>
+  </si>
+  <si>
+    <t>Sept. 1st: Lesson: Git Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                       </t>
+  </si>
+  <si>
+    <t>Sept. 3rd: No school until Sept. 7th</t>
+  </si>
+  <si>
+    <t>Sep. 7th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Sep. 7th: [Video] Imposter Syndrome (Extra Credits)</t>
+  </si>
+  <si>
+    <t>Sep. 7th: [Lecture] The Importance of Documentation</t>
+  </si>
+  <si>
+    <t>Sep. 9th: [Live Tutorial] Accessing the DocPac Git Repo on Github</t>
+  </si>
+  <si>
+    <t>Sep. 10th: DocPac Sep3 and Sep10 due for grading</t>
+  </si>
+  <si>
+    <t>Sep. 13th: Quick Weekly Review</t>
+  </si>
+  <si>
+    <t>Sep. 14th: [Live Tutorial] Updating DocPacs Lesson</t>
+  </si>
+  <si>
+    <t>Sep. 15th: Last Week’s DocPac Full Review</t>
+  </si>
+  <si>
+    <t>Sep. 15th: [Live Tutorial] Building a Schedule</t>
+  </si>
+  <si>
+    <t>Sep. 15th: [Live Tutorial] Building an ExpressJS Application</t>
+  </si>
+  <si>
+    <t>Sep. 17th: [Live Tutorial] Parsing Query Params in ExpressJS</t>
+  </si>
+  <si>
+    <t>Sep. 17th: All Updated DocPacs due</t>
+  </si>
+  <si>
+    <t>Sep. 20th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Sep. 21st: [Live Tutorial] Using Git Repo branches</t>
+  </si>
+  <si>
+    <t>Sep. 23rd: [Live Tutorial] ExpressJS and EJS Templating</t>
+  </si>
+  <si>
+    <t>Sep. 24th: DocPacs Due</t>
+  </si>
+  <si>
+    <t>Oct 4th: IT Fundamentals rotation begins</t>
+  </si>
+  <si>
+    <t>Oct 11th: No School</t>
+  </si>
+  <si>
+    <t>Sep. 27th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Sep. 27th: [Lesson] Notebook Development</t>
+  </si>
+  <si>
+    <t>Sep. 29th: [Lesson] Project Management with KanBan</t>
+  </si>
+  <si>
+    <t>Oct. 1st: [Assessment] ExpressJS HTTP Server</t>
+  </si>
+  <si>
+    <t>Oct. 4th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Oct. 5th: [Lesson] Working with JSON Files</t>
+  </si>
+  <si>
+    <t>Oct. 7th: [Lesson] Reading Query Parameters</t>
+  </si>
+  <si>
+    <t>Oct. 12th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Oct. 12th: [Lesson] HTTP Post Requests</t>
+  </si>
+  <si>
+    <t>Oct. 14th: [Discussion] Meritocracy and Teams</t>
+  </si>
+  <si>
+    <t>Oct. 15th: End-of-Week Code Review</t>
+  </si>
+  <si>
+    <t>Oct. 18th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Oct. 18th: [Presentation] Available Team Projects</t>
+  </si>
+  <si>
+    <t>Oct. 20th: Pre-Nocti Test</t>
+  </si>
+  <si>
+    <t>Oct. 25th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Oct. 26th: Teams A, B, C Interviews</t>
+  </si>
+  <si>
+    <t>Oct. 27th: Team D Invterview</t>
+  </si>
+  <si>
+    <t>Oct. 28th: Teams E, F, G Interviews</t>
+  </si>
+  <si>
+    <t>Oct. 29th: nodeJS/ExpressJS/EJS exam</t>
+  </si>
+  <si>
+    <t>Nov 2nd: Weekly Review</t>
+  </si>
+  <si>
+    <t>Nov 3rd: [Lesson] Sending Professional Emails</t>
+  </si>
+  <si>
+    <t>Nov 4th: [Presentation] DenMark in Auditorium @ 8:30AM</t>
+  </si>
+  <si>
+    <t>Nov 4th: [Lesson] The Contract</t>
+  </si>
+  <si>
+    <t>Nov 5th: ExpressJS Exam Retake</t>
+  </si>
+  <si>
+    <t>Nov 8th: Check your emails before class begins</t>
+  </si>
+  <si>
+    <t>Nov 8th, 8:15am: Weekly Review</t>
+  </si>
+  <si>
+    <t>Nov 8th, 8:45am: Private Meetings</t>
+  </si>
+  <si>
+    <t>Nov 8th, 9:50am Brainstorming Design Questions</t>
+  </si>
+  <si>
+    <t>Nov 9th, 1:40pm: Teams A, C, D receive projects</t>
+  </si>
+  <si>
+    <t>Nov 10th, 9:05am:Teams E, F, G receive projects</t>
+  </si>
+  <si>
+    <t>Nov 10th: Minimum Viable Product and Making Plans</t>
+  </si>
+  <si>
+    <t>Nov 11th: Exam Preparation Plans</t>
+  </si>
+  <si>
+    <t>Nov 15th: Juniors to Pre-Nocti</t>
+  </si>
+  <si>
+    <t>Nov 16th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Nov 16th: [Lesson] Scheduling a Meeting</t>
+  </si>
+  <si>
+    <t>Nov 16th: [Lesson] Design an MVP</t>
+  </si>
+  <si>
+    <t>Nov 19th: Senior Interviews</t>
+  </si>
+  <si>
+    <t>Nov 30th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Nov 30th: [Lesson] JS Bootcamp</t>
+  </si>
+  <si>
+    <t>Dec 1st: Intervention</t>
+  </si>
+  <si>
+    <t>Dec 1st: [Lesson] JS Bootcamp</t>
+  </si>
+  <si>
+    <t>Dec 2nd: [Lesson] JS Bootcamp</t>
+  </si>
+  <si>
+    <t>Dec 3rd: [Lesson] JS Bootcamp</t>
+  </si>
+  <si>
+    <t>Dec 6th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Dec 7th: [Lesson] Ordered and Unordered Collections</t>
+  </si>
+  <si>
+    <t>Dec 8th: Intervention Schedule</t>
+  </si>
+  <si>
+    <t>Dec 9th: [Lesson] Iterating Through Collections</t>
+  </si>
+  <si>
+    <t>Dec 10th: DocPacs Due</t>
+  </si>
+  <si>
+    <t>Dec 13th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Dec 13th: [Lesson] Github Project Management</t>
+  </si>
+  <si>
+    <t>Dec 15th: Intervention Schedule</t>
+  </si>
+  <si>
+    <t>Dec 15th: [Bootcamp] Canvas + Iterators</t>
+  </si>
+  <si>
+    <t>Dec 16th: DocPacs Early Submission (Optional)</t>
+  </si>
+  <si>
+    <t>Dec 17th: Free Day. No work required</t>
+  </si>
+  <si>
+    <t>Dec 20th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Dec 20th: Github Review</t>
+  </si>
+  <si>
+    <t>Dec 21st: [Lesson] Flow Charts</t>
+  </si>
+  <si>
+    <t>Dec 22nd: Final DocPac Submissions</t>
+  </si>
+  <si>
+    <t>Jan 3rd: Weekly Review</t>
+  </si>
+  <si>
+    <t>Jan 3rd: Github Review</t>
+  </si>
+  <si>
+    <t>Jan 3rd: [Lesson] Examining the NOCTI Requirements</t>
+  </si>
+  <si>
+    <t>Jan 5th: [Lesson] Building NOCTI Flowchart</t>
+  </si>
+  <si>
+    <t>Jan 7th: [Lesson] Programming NOCTI Application</t>
+  </si>
+  <si>
+    <t>Jan 10th: DocPac Jan07 Due</t>
+  </si>
+  <si>
+    <t>Jan 10th: [Lesson] Routines</t>
+  </si>
+  <si>
+    <t>Jan 11th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Jan 11th: [Lesson] nodeJS Debugging with Chrome</t>
+  </si>
+  <si>
+    <t>Jan 13th: [Lesson] Building Exam Flowchart</t>
+  </si>
+  <si>
+    <t>Jan 13th: Team Project Presentations</t>
+  </si>
+  <si>
+    <t>Jan 14th: DocPacs Due</t>
+  </si>
+  <si>
+    <t>Jan 18th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Jan 19th: [Lesson] Exam Prep</t>
+  </si>
+  <si>
+    <t>Jan 20th: Exam</t>
+  </si>
+  <si>
+    <t>Jan 21st: DocPacs Due</t>
+  </si>
+  <si>
+    <t>Jan 25th: Weekly Review</t>
+  </si>
+  <si>
+    <t>Jan 25th: [Lesson] JSON Read/Write</t>
+  </si>
+  <si>
+    <t>Jan 27th: Exam</t>
+  </si>
+  <si>
+    <t>Jan 28th: DocPacs Due</t>
+  </si>
+  <si>
+    <t>Jan 31st: Weekly Review</t>
+  </si>
+  <si>
+    <t>Feb 4th: DocPacs Due</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,8 +1256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,61 +1576,3482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14F1F0-71BB-4048-BCA6-A2DAF81E1CD9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD1F2F-EFC4-4958-ADC1-A356380CFF22}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F054F6EF-FFCE-4725-89B1-B572ED186CC2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72838780-90F4-4A87-8757-163B01A27375}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F146CA-1518-4DB7-A663-2FC2A493ED41}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -618,18 +5240,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,25 +5273,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47906CCD-A59E-4EBF-AABD-40850FCB972B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85B0521-8502-4E0F-BA83-B8F490467FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47906CCD-A59E-4EBF-AABD-40850FCB972B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>